--- a/data/baseline_VISION.xlsx
+++ b/data/baseline_VISION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cliftoninsight.sharepoint.com/sites/CliftonInsightSharePoint/Shared Documents/Clients Projects/Bayer/mCRPC - radium-223/ML-NMR and Pluvicto MAICs/Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6A2947-04C2-8C42-8B56-3CA521691A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4D6A2947-04C2-8C42-8B56-3CA521691A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EF2680-2912-D446-A3EF-6EB759ED5204}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2D4073DC-85F6-744F-8BD3-5A2311A9997A}"/>
   </bookViews>
@@ -36,32 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>VISION</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>Standard care</t>
   </si>
   <si>
     <t>Pluvicto</t>
   </si>
   <si>
-    <t>age_median</t>
-  </si>
-  <si>
-    <t>gleason8_n</t>
-  </si>
-  <si>
-    <t>gleason8_prop</t>
-  </si>
-  <si>
-    <t>psa_median</t>
-  </si>
-  <si>
     <t>trt</t>
   </si>
   <si>
@@ -71,7 +56,16 @@
     <t>sample_size</t>
   </si>
   <si>
-    <t>ecog_n</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>ecog_0</t>
+  </si>
+  <si>
+    <t>gleason_8</t>
+  </si>
+  <si>
+    <t>psa</t>
   </si>
 </sst>
 </file>
@@ -504,46 +498,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E1C3DB-324F-6B44-B898-359692C16B11}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>551</v>
@@ -551,25 +542,22 @@
       <c r="D2" s="3">
         <v>70</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
+      <c r="E2" s="3">
+        <v>92.6</v>
       </c>
       <c r="F2" s="3">
-        <v>324</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="G2" s="3">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="H2" s="3">
         <v>77.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
         <v>280</v>
@@ -577,16 +565,13 @@
       <c r="D3" s="5">
         <v>71.5</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
+      <c r="E3" s="5">
+        <v>92.1</v>
       </c>
       <c r="F3" s="5">
-        <v>170</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G3" s="5">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="H3" s="5">
         <v>74.599999999999994</v>
       </c>
     </row>
@@ -596,6 +581,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="278bb782-63ba-463e-8f20-4b904dabb392" xsi:nil="true"/>
+    <TaxCatchAll xmlns="41bdd423-71f2-4e9f-bd6f-14429de436ba" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="278bb782-63ba-463e-8f20-4b904dabb392">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BDFD501D13FF2B4BB787086D104B1330" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7de7a3b22b61310a98cf4e68592f4744">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="278bb782-63ba-463e-8f20-4b904dabb392" xmlns:ns3="41bdd423-71f2-4e9f-bd6f-14429de436ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27428693fbb3cb8d829dfb54ce48a64b" ns2:_="" ns3:_="">
     <xsd:import namespace="278bb782-63ba-463e-8f20-4b904dabb392"/>
@@ -832,35 +838,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="278bb782-63ba-463e-8f20-4b904dabb392" xsi:nil="true"/>
-    <TaxCatchAll xmlns="41bdd423-71f2-4e9f-bd6f-14429de436ba" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="278bb782-63ba-463e-8f20-4b904dabb392">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8469E70-F060-449D-BCB5-CF2239A01C2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED42B5C-2DB4-46C8-A420-4107F285A581}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="41bdd423-71f2-4e9f-bd6f-14429de436ba"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="278bb782-63ba-463e-8f20-4b904dabb392"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93ECE31-6FE8-401C-B7A1-81ABE4FD74CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F93ECE31-6FE8-401C-B7A1-81ABE4FD74CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AED42B5C-2DB4-46C8-A420-4107F285A581}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8469E70-F060-449D-BCB5-CF2239A01C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="278bb782-63ba-463e-8f20-4b904dabb392"/>
+    <ds:schemaRef ds:uri="41bdd423-71f2-4e9f-bd6f-14429de436ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/baseline_VISION.xlsx
+++ b/data/baseline_VISION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cliftoninsight.sharepoint.com/sites/CliftonInsightSharePoint/Shared Documents/Clients Projects/Bayer/mCRPC - radium-223/ML-NMR and Pluvicto MAICs/Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{4D6A2947-04C2-8C42-8B56-3CA521691A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20EF2680-2912-D446-A3EF-6EB759ED5204}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{4D6A2947-04C2-8C42-8B56-3CA521691A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE17943-E6F0-6241-9148-81F4722C4BBE}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2D4073DC-85F6-744F-8BD3-5A2311A9997A}"/>
   </bookViews>
@@ -59,13 +59,13 @@
     <t>age</t>
   </si>
   <si>
-    <t>ecog_0</t>
-  </si>
-  <si>
     <t>gleason_8</t>
   </si>
   <si>
     <t>psa</t>
+  </si>
+  <si>
+    <t>ecog</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,13 +520,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/data/baseline_VISION.xlsx
+++ b/data/baseline_VISION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cliftoninsight.sharepoint.com/sites/CliftonInsightSharePoint/Shared Documents/Clients Projects/Bayer/mCRPC - radium-223/ML-NMR and Pluvicto MAICs/Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4D6A2947-04C2-8C42-8B56-3CA521691A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE17943-E6F0-6241-9148-81F4722C4BBE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{4D6A2947-04C2-8C42-8B56-3CA521691A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614E348E-66C8-F540-9FBA-B23F53D888E7}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2D4073DC-85F6-744F-8BD3-5A2311A9997A}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +543,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="3">
-        <v>92.6</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="F2" s="3">
         <v>0.58799999999999997</v>
@@ -566,7 +566,7 @@
         <v>71.5</v>
       </c>
       <c r="E3" s="5">
-        <v>92.1</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F3" s="5">
         <v>0.60699999999999998</v>
